--- a/weight_pairwisecomparision.xlsx
+++ b/weight_pairwisecomparision.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ericagoto/Dropbox/ESTUDOS/erica phD/methodology/AHP/BGM-Weight02-MultilinerLogistic/BGM/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9555A465-3A96-F148-8020-7A5828B04312}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770917D9-E8A3-C745-91D6-08EB52DB5FF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="1360" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{DF485BA3-7229-5C44-BF67-B19920303363}"/>
   </bookViews>
@@ -2747,7 +2747,7 @@
   <dimension ref="A1:F55"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3820,7 +3820,7 @@
         <v>27</v>
       </c>
       <c r="C54">
-        <v>15.2</v>
+        <v>18.2</v>
       </c>
       <c r="D54">
         <v>0.152</v>
